--- a/Input_Excel/25_03_009.xlsx
+++ b/Input_Excel/25_03_009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatatechnologies.sharepoint.com/sites/MBSE_Team-SAARCONN/Shared Documents/SAARCONN/Eliminating_SystemDesk/tests/Harshit_arelements_validation_24_03/COMBINED_AUTOMATION/Input_Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{540C1665-6091-4F9F-B551-03ED87205299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3F65A12-AC46-4FF1-8417-09624BDFCBE4}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{540C1665-6091-4F9F-B551-03ED87205299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C7F9FE-B77D-41AA-840C-02DCEA045356}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="897" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2107,15 +2107,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2134,8 +2125,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3452,7 +3452,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3541,7 +3541,7 @@
         <v>67</v>
       </c>
       <c r="E3" s="37">
-        <v>124</v>
+        <v>100000</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>31</v>
@@ -3567,7 +3567,7 @@
         <v>320</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>67</v>
+        <v>329</v>
       </c>
       <c r="E4" s="37">
         <v>125</v>
@@ -4571,17 +4571,17 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="D2:D6"/>
@@ -4590,17 +4590,17 @@
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="E8:E12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048">
@@ -4684,7 +4684,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4778,7 +4778,7 @@
         <v>96</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.3">
@@ -4812,17 +4812,17 @@
         <v>0</v>
       </c>
       <c r="L3" s="30">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="60">
         <v>3</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="67" t="s">
         <v>393</v>
       </c>
       <c r="C4" s="60" t="s">
@@ -4843,25 +4843,25 @@
       <c r="H4" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="67">
         <v>0</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="67">
         <v>96</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="61" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="60"/>
-      <c r="B5" s="63"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
@@ -4872,23 +4872,23 @@
         <v>452</v>
       </c>
       <c r="H5" s="60"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="66"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67">
+      <c r="A6" s="64">
         <v>4</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="67" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="68" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="60" t="s">
@@ -4903,25 +4903,25 @@
       <c r="H6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="70" t="s">
         <v>79</v>
       </c>
       <c r="J6" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="69">
         <v>0</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="69">
         <v>7</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="M6" s="61" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
@@ -4932,15 +4932,15 @@
         <v>81</v>
       </c>
       <c r="H7" s="60"/>
-      <c r="I7" s="63"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="65"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
       <c r="E8" s="60"/>
@@ -4951,15 +4951,15 @@
         <v>455</v>
       </c>
       <c r="H8" s="60"/>
-      <c r="I8" s="63"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="65"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60"/>
@@ -4970,15 +4970,15 @@
         <v>456</v>
       </c>
       <c r="H9" s="60"/>
-      <c r="I9" s="63"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="65"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
@@ -4989,15 +4989,15 @@
         <v>82</v>
       </c>
       <c r="H10" s="60"/>
-      <c r="I10" s="63"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="65"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -5008,15 +5008,15 @@
         <v>83</v>
       </c>
       <c r="H11" s="60"/>
-      <c r="I11" s="63"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="65"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="62"/>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
       <c r="E12" s="60"/>
@@ -5027,15 +5027,15 @@
         <v>457</v>
       </c>
       <c r="H12" s="60"/>
-      <c r="I12" s="63"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="65"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -5046,14 +5046,20 @@
         <v>84</v>
       </c>
       <c r="H13" s="60"/>
-      <c r="I13" s="63"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="66"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="I6:I13"/>
     <mergeCell ref="M6:M13"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="M4:M5"/>
@@ -5070,12 +5076,6 @@
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="E6:E13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="I6:I13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1048">
@@ -5210,13 +5210,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="67">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="64" t="s">
         <v>386</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -5228,14 +5228,14 @@
       <c r="F2" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="64" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="26" t="s">
         <v>388</v>
       </c>
@@ -5245,12 +5245,12 @@
       <c r="F3" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="G3" s="68"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="26" t="s">
         <v>389</v>
       </c>
@@ -5260,12 +5260,12 @@
       <c r="F4" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="G4" s="68"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="26" t="s">
         <v>390</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="F5" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
@@ -5324,13 +5324,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="67">
+      <c r="A8" s="64">
         <v>4</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="64" t="s">
         <v>406</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -5342,14 +5342,14 @@
       <c r="F8" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="64" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="26" t="s">
         <v>409</v>
       </c>
@@ -5359,7 +5359,7 @@
       <c r="F9" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="69"/>
+      <c r="G9" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5464,13 +5464,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="61">
+      <c r="A2" s="69">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="69" t="s">
         <v>474</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -5481,9 +5481,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="26" t="s">
         <v>388</v>
       </c>
@@ -5492,9 +5492,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="26" t="s">
         <v>389</v>
       </c>
@@ -5503,9 +5503,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="26" t="s">
         <v>390</v>
       </c>
@@ -5548,13 +5548,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61">
+      <c r="A8" s="69">
         <v>4</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="69" t="s">
         <v>475</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -5565,9 +5565,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="26" t="s">
         <v>479</v>
       </c>
@@ -50515,6 +50515,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<titus xmlns="http://schemas.titus.com/TitusProperties/">
+  <TitusGUID xmlns="">13415162-7c7e-4690-b9c0-c3277ee45481</TitusGUID>
+  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
+</titus>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e4be601-d1eb-4833-8855-b10f66ff5f6e">
@@ -50531,14 +50538,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<titus xmlns="http://schemas.titus.com/TitusProperties/">
-  <TitusGUID xmlns="">13415162-7c7e-4690-b9c0-c3277ee45481</TitusGUID>
-  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
-</titus>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FF20ACD2ACDAF4B84EF9300C67B2159" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c36ae600cfc71a682facb2fe9ea4a9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e4be601-d1eb-4833-8855-b10f66ff5f6e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efc49a46b45dba0aa538c93634f147fb" ns2:_="">
     <xsd:import namespace="1e4be601-d1eb-4833-8855-b10f66ff5f6e"/>
@@ -50736,16 +50745,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2F5D10-2444-49FE-A77C-61C4138B612E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
+    <ds:schemaRef ds:uri=""/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955FB65A-AA4A-4AC7-ABF5-73D99F3CD624}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -50755,16 +50764,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2F5D10-2444-49FE-A77C-61C4138B612E}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40670A2F-7A86-4261-8824-D7A1D690F431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
-    <ds:schemaRef ds:uri=""/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18647F7B-AB5F-435B-9FBB-244B71312A6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50780,12 +50788,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40670A2F-7A86-4261-8824-D7A1D690F431}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>